--- a/public/files/Table/excel/集团会表.xlsx
+++ b/public/files/Table/excel/集团会表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20070" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="forms" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -97,19 +97,37 @@
     <t>comments</t>
   </si>
   <si>
+    <t>11月5日-11月9日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>党委办公室\集团办公室</t>
+  </si>
+  <si>
+    <t>郑琨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02 18:38:22 </t>
+  </si>
+  <si>
+    <t>集团会表</t>
+  </si>
+  <si>
+    <t>11月5日-11月9日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-11-05 18:3:48</t>
+  </si>
+  <si>
+    <t>11月12日-11月16日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-11-09 18:54:30</t>
+  </si>
+  <si>
     <t>11月12日-11月16日一周工作安排（确定版）</t>
   </si>
   <si>
-    <t>党委办公室\集团办公室</t>
-  </si>
-  <si>
-    <t>郑琨</t>
-  </si>
-  <si>
     <t>2018-11-12 18:25:1</t>
-  </si>
-  <si>
-    <t>集团会表</t>
   </si>
 </sst>
 </file>
@@ -117,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,13 +157,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,46 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +178,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -215,7 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,15 +232,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,31 +270,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,23 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +551,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,6 +591,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,10 +754,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1096,109 +1114,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.75" style="1" customWidth="1"/>
-    <col min="4" max="26" width="30.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="44.25" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.75" style="2" customWidth="1"/>
+    <col min="4" max="26" width="30.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="44.25" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="3"/>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="3"/>
@@ -1218,97 +1236,147 @@
       <c r="I2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" s="1" customFormat="1" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" s="1" customFormat="1" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/Table/excel/集团会表.xlsx
+++ b/public/files/Table/excel/集团会表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="8385"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="forms" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>id</t>
   </si>
@@ -97,19 +97,622 @@
     <t>comments</t>
   </si>
   <si>
+    <t>1月2日-1月5日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>党委办公室\集团办公室</t>
+  </si>
+  <si>
+    <t>曹冬冬</t>
+  </si>
+  <si>
+    <t>2018-01-02 18:0:34</t>
+  </si>
+  <si>
+    <t>集团会表</t>
+  </si>
+  <si>
+    <t>1月8日-1月12日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2018-01-05 19:10:10</t>
+  </si>
+  <si>
+    <t>1月8日-1月12日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-01-08 18:40:59</t>
+  </si>
+  <si>
+    <t>1月15日-1月19日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-01-15 18:11:30</t>
+  </si>
+  <si>
+    <t>1月22日-1月26日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-19 18:6:57 </t>
+  </si>
+  <si>
+    <t>1月22日-1月26日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-01-22 18:10:56</t>
+  </si>
+  <si>
+    <t>1月29日-2月2日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-01-26 18:41:45</t>
+  </si>
+  <si>
+    <t>1月29日-2月2日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-01-29 18:25:17</t>
+  </si>
+  <si>
+    <t>2月5日-2月9日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-02-02 17:58:24</t>
+  </si>
+  <si>
+    <t>2月5日-2月9日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-02-05 18:5:5</t>
+  </si>
+  <si>
+    <t>2月10日-2月14日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-02-09 17:56:1</t>
+  </si>
+  <si>
+    <t>2月10日-2月14日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-02-11 17:46:8</t>
+  </si>
+  <si>
+    <t>2月22日-2月24日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-02-22 17:28:51</t>
+  </si>
+  <si>
+    <t>2月26日-3月2日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>刘国庆</t>
+  </si>
+  <si>
+    <t>2018-02-24 18:58:16</t>
+  </si>
+  <si>
+    <t>2月26日-3月2日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-02-26 18:27:6</t>
+  </si>
+  <si>
+    <t>3月5日-3月9日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-03-02 18:28:18</t>
+  </si>
+  <si>
+    <t>3月5日-3月9日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-03-05 18:30:2</t>
+  </si>
+  <si>
+    <t>3月12日-3月16日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-03-09 18:44:34</t>
+  </si>
+  <si>
+    <t>3月12日-3月16日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-03-12 18:31:33</t>
+  </si>
+  <si>
+    <t>3月19日-3月23日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-03-16 18:33:10</t>
+  </si>
+  <si>
+    <t>3月19日-3月23日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-03-19 18:52:40</t>
+  </si>
+  <si>
+    <t>3月26日-3月30日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-03-23 18:8:18</t>
+  </si>
+  <si>
+    <t>3月26日-3月30日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-03-26 18:32:47</t>
+  </si>
+  <si>
+    <t>4月2日-4月4日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-04-01 11:7:44</t>
+  </si>
+  <si>
+    <t>4月2日-4月4日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-04-02 17:50:59</t>
+  </si>
+  <si>
+    <t>4月8日-4月13日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-04-04 18:17:32</t>
+  </si>
+  <si>
+    <t>4月8日-4月13日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-04-08 18:32:49</t>
+  </si>
+  <si>
+    <t>4月16日-4月20日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-04-13 18:7:38</t>
+  </si>
+  <si>
+    <t>4月16日-4月20日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-04-16 18:29:58</t>
+  </si>
+  <si>
+    <t>4月23日-4月28日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-04-20 18:49:56</t>
+  </si>
+  <si>
+    <t>4月23日-4月28日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-04-23 18:17:27</t>
+  </si>
+  <si>
+    <t>5月2日-5月4日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-04-28 18:11:11</t>
+  </si>
+  <si>
+    <t>5月2日-5月4日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-02 17:55:13 </t>
+  </si>
+  <si>
+    <t>5月7日-5月11日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-05-04 18:0:50</t>
+  </si>
+  <si>
+    <t>5月7日-5月11日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-05-07 18:21:17</t>
+  </si>
+  <si>
+    <t>5月14日-5月18日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-05-11 18:3:40</t>
+  </si>
+  <si>
+    <t>5月14日-5月18日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-05-14 17:47:51</t>
+  </si>
+  <si>
+    <t>5月21日-5月25日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-05-18 17:48:41</t>
+  </si>
+  <si>
+    <t>5月21日-5月25日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-05-21 18:14:25</t>
+  </si>
+  <si>
+    <t>5月28日-6月1日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-05-25 18:35:6</t>
+  </si>
+  <si>
+    <t>5月28日-6月1日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-05-28 18:31:1</t>
+  </si>
+  <si>
+    <t>6月4日-6月8日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-06-01 18:38:25</t>
+  </si>
+  <si>
+    <t>6月4日-6月8日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-06-04 17:59:50</t>
+  </si>
+  <si>
+    <t>6月11日-6月15日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-06-08 20:19:55</t>
+  </si>
+  <si>
+    <t>6月11日-6月15日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-06-11 18:17:27</t>
+  </si>
+  <si>
+    <t>6月19日-6月22日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-06-15 18:8:35</t>
+  </si>
+  <si>
+    <t>6月19日-6月22日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-06-19 17:53:23</t>
+  </si>
+  <si>
+    <t>6月25日-6月29日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-06-22 18:5:59</t>
+  </si>
+  <si>
+    <t>6月25日-6月29日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-06-25 17:51:45</t>
+  </si>
+  <si>
+    <t>7月2日-7月6日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-06-29 17:50:33</t>
+  </si>
+  <si>
+    <t>7月2日-7月6日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-07-02 18:1:8</t>
+  </si>
+  <si>
+    <t>7月9日-7月13日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-07-06 17:37:25</t>
+  </si>
+  <si>
+    <t>7月9日-7月13日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-07-09 18:5:35</t>
+  </si>
+  <si>
+    <t>7月16日-7月20日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-07-13 17:57:48</t>
+  </si>
+  <si>
+    <t>7月16日-7月20日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-07-16 18:1:15</t>
+  </si>
+  <si>
+    <t>7月23日-7月27日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-07-20 19:2:45</t>
+  </si>
+  <si>
+    <t>7月23日-7月27日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-07-23 20:51:35</t>
+  </si>
+  <si>
+    <t>7月30日-8月3日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>郑琨</t>
+  </si>
+  <si>
+    <t>2018-07-27 18:35:2</t>
+  </si>
+  <si>
+    <t>7月30日-8月3日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-07-30 18:18:56</t>
+  </si>
+  <si>
+    <t>8月6日-8月10日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-08-03 18:55:40</t>
+  </si>
+  <si>
+    <t>8月6日-8月10日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-08-06 19:6:16</t>
+  </si>
+  <si>
+    <t>8月13日-8月17日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-08-10 18:45:59</t>
+  </si>
+  <si>
+    <t>8月13日-8月17日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-08-13 18:12:36</t>
+  </si>
+  <si>
+    <t>8月20日-8月24日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-08-17 18:46:51</t>
+  </si>
+  <si>
+    <t>8月20日-8月24日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-08-20 18:5:5</t>
+  </si>
+  <si>
+    <t>8月27日-8月31日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-08-24 18:16:20</t>
+  </si>
+  <si>
+    <t>8月27日-8月31日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-27 17:51:0 </t>
+  </si>
+  <si>
+    <t>9月3日-9月7日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-08-31 18:10:56</t>
+  </si>
+  <si>
+    <t>9月3日-9月7日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-09-03 18:33:8</t>
+  </si>
+  <si>
+    <t>9月10日-9月14日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-09-07 18:10:52</t>
+  </si>
+  <si>
+    <t>9月10日-9月14日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-09-10 18:8:37</t>
+  </si>
+  <si>
+    <t>9月17日-9月21日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-09-14 18:28:6</t>
+  </si>
+  <si>
+    <t>9月17日-9月21日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-09-17 17:57:53</t>
+  </si>
+  <si>
+    <t>9月25日-9月30日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-09-21 18:43:16</t>
+  </si>
+  <si>
+    <t>9月25日-9月30日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-09-25 18:39:26</t>
+  </si>
+  <si>
+    <t>10月8日-10月12日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-09-30 17:1:30</t>
+  </si>
+  <si>
+    <t>10月8日-10月12日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-10-08 18:48:7</t>
+  </si>
+  <si>
+    <t>10月15日-10月19日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-10-12 19:40:52</t>
+  </si>
+  <si>
+    <t>10月15日-10月19日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-10-15 18:17:19</t>
+  </si>
+  <si>
+    <t>10月22日-10月26日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-10-19 18:44:5</t>
+  </si>
+  <si>
+    <t>10月22日-10月26日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-10-22 18:30:28</t>
+  </si>
+  <si>
+    <t>10月29日-11月2日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-10-26 18:38:23</t>
+  </si>
+  <si>
+    <t>10月29日-11月2日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-10-29 18:35:44</t>
+  </si>
+  <si>
+    <t>11月5日-11月9日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02 18:38:22 </t>
+  </si>
+  <si>
+    <t>11月5日-11月9日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-11-05 18:3:48</t>
+  </si>
+  <si>
+    <t>11月12日-11月16日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t>2018-11-09 18:54:30</t>
+  </si>
+  <si>
+    <t>11月12日-11月16日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-11-12 18:25:1</t>
+  </si>
+  <si>
+    <t>11月19日-11月23日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-19 18:14:55 </t>
+  </si>
+  <si>
+    <t>11月19日-11月23日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-16 18:57:26 </t>
+  </si>
+  <si>
+    <t>11月26日-11月30日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-26 18:19:18 </t>
+  </si>
+  <si>
+    <t>11月26日-11月30日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-23 18:30:5 </t>
+  </si>
+  <si>
+    <t>12月3日-12月7日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-03 18:57:12  </t>
+  </si>
+  <si>
+    <t>12月3日-12月7日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-30 18:9:4 </t>
+  </si>
+  <si>
+    <t>12月10日-12月14日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-10 18:44:36 </t>
+  </si>
+  <si>
+    <t>12月10日-12月14日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-07 19:8:20 </t>
+  </si>
+  <si>
+    <t>12月17日-12月21日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-17 18:16:32 </t>
+  </si>
+  <si>
+    <t>12月17日-12月21日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-14 18:45:35 </t>
+  </si>
+  <si>
+    <t>12月24日-12月29日一周工作安排（确定版）</t>
+  </si>
+  <si>
+    <t>2018-12-24 19:41:26</t>
+  </si>
+  <si>
+    <t>12月24日-12月29日一周工作安排（待定版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-21 19:4:6 </t>
+  </si>
+  <si>
     <t>1月7日-1月11日一周工作安排（确定版）</t>
   </si>
   <si>
-    <t>党委办公室\集团办公室</t>
-  </si>
-  <si>
-    <t>郑琨</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-01-07 18:47:22 </t>
-  </si>
-  <si>
-    <t>集团会表</t>
   </si>
   <si>
     <t>1月7日-1月11日一周工作安排（待定版）</t>
@@ -135,12 +738,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +756,19 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,9 +780,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,38 +862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,30 +887,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,36 +895,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +918,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +1044,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,103 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +1122,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -523,6 +1147,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,39 +1195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,10 +1217,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,150 +1229,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,103 +1732,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A105" sqref="$A105:$XFD108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.75" style="1" customWidth="1"/>
-    <col min="4" max="26" width="30.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="44.25" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="32" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.75" style="2" customWidth="1"/>
+    <col min="4" max="26" width="30.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="44.25" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1221,85 +1836,2926 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="3"/>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="6">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="6">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="6">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="6">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="6">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="6">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="6">
+        <v>13</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="6">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="6">
+        <v>13</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="6">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="6">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="6">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6">
+        <v>13</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="6">
+        <v>13</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6">
+        <v>13</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="6">
+        <v>13</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:27">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="6">
+        <v>13</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:27">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="6">
+        <v>13</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:27">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="6">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="6">
+        <v>13</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="6">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:27">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="6">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:27">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="6">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:27">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="6">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="6">
+        <v>13</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:27">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="6">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:27">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="6">
+        <v>13</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:27">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="6">
+        <v>13</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:27">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="6">
+        <v>13</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="6">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="6">
+        <v>13</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="6">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="6">
+        <v>13</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5"/>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="6">
+        <v>13</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="6">
+        <v>13</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="6">
+        <v>13</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="6">
+        <v>13</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="6">
+        <v>13</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="6">
+        <v>13</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="6">
+        <v>13</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="6">
+        <v>13</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="6">
+        <v>13</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="6">
+        <v>13</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="6">
+        <v>13</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="6">
+        <v>13</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="6">
+        <v>13</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="6">
+        <v>13</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="6">
+        <v>13</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="6">
+        <v>13</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="6">
+        <v>13</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="6">
+        <v>13</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="6">
+        <v>13</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="6">
+        <v>13</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="6">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="6">
+        <v>13</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="6">
+        <v>13</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="6">
+        <v>13</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="6">
+        <v>13</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="6">
+        <v>13</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="6">
+        <v>13</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="6">
+        <v>13</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="6">
+        <v>13</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5"/>
+      <c r="B88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="6">
+        <v>13</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:9">
+      <c r="A89" s="2"/>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="2">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:9">
+      <c r="A90" s="2"/>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="2">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:9">
+      <c r="A91" s="5"/>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="2">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:9">
+      <c r="A92" s="2"/>
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="2">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:9">
+      <c r="A93" s="5"/>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="2">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:9">
+      <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="2">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:9">
+      <c r="A95" s="5"/>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="2">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:9">
+      <c r="A96" s="5"/>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="2">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:9">
+      <c r="A97" s="5"/>
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="2">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:9">
+      <c r="A98" s="5"/>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="2">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:28">
+      <c r="A99" s="2"/>
+      <c r="B99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="2">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" customFormat="1" spans="1:9">
+      <c r="A100" s="5"/>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="2">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:28">
+      <c r="A101" s="2"/>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="2">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" customFormat="1" spans="1:9">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="2">
+        <v>13</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:9">
+      <c r="A103" s="2"/>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="2">
+        <v>13</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:9">
+      <c r="A104" s="2"/>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="2">
+        <v>13</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:27">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6">
+        <v>13</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:27">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6">
+        <v>13</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:27">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6">
+        <v>13</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:27">
+      <c r="A108" s="5"/>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6">
+        <v>13</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/Table/excel/集团会表.xlsx
+++ b/public/files/Table/excel/集团会表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,19 @@
     <t>党委办公室\集团办公室</t>
   </si>
   <si>
+    <t>曹冬冬</t>
+  </si>
+  <si>
+    <t>2018-01-14 9:10:10</t>
+  </si>
+  <si>
+    <t>集团会表</t>
+  </si>
+  <si>
     <t>1月2日-1月5日一周工作安排（确定版）</t>
   </si>
   <si>
-    <t>曹冬冬</t>
-  </si>
-  <si>
     <t>2018-01-02 18:0:34</t>
-  </si>
-  <si>
-    <t>集团会表</t>
   </si>
   <si>
     <t>1月8日-1月12日一周工作安排（待定版）</t>
@@ -741,9 +744,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -769,20 +772,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -796,8 +785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,6 +808,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,14 +830,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -867,7 +886,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,29 +914,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -921,7 +924,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,37 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,37 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,37 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,37 +1080,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,16 +1119,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,39 +1149,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,6 +1182,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,10 +1223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,133 +1235,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1838,7 +1841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:9">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1851,38 +1854,47 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -1892,13 +1904,13 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1923,10 +1935,10 @@
     <row r="5" spans="1:28">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
         <v>13</v>
@@ -1936,23 +1948,23 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="8"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
         <v>13</v>
@@ -1962,23 +1974,23 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
         <v>13</v>
@@ -1988,23 +2000,23 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
         <v>13</v>
@@ -2014,23 +2026,23 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB8" s="8"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7">
         <v>13</v>
@@ -2040,22 +2052,22 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
         <v>13</v>
@@ -2065,22 +2077,22 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
         <v>13</v>
@@ -2090,22 +2102,22 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
         <v>13</v>
@@ -2115,22 +2127,22 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
         <v>13</v>
@@ -2140,22 +2152,22 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
         <v>13</v>
@@ -2165,22 +2177,22 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
         <v>13</v>
@@ -2190,22 +2202,22 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
@@ -2215,22 +2227,22 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
         <v>13</v>
@@ -2240,22 +2252,22 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
         <v>13</v>
@@ -2265,22 +2277,22 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
         <v>13</v>
@@ -2290,22 +2302,22 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7">
         <v>13</v>
@@ -2315,22 +2327,22 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7">
         <v>13</v>
@@ -2340,22 +2352,22 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
         <v>13</v>
@@ -2365,22 +2377,22 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="7">
         <v>13</v>
@@ -2390,22 +2402,22 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="7">
         <v>13</v>
@@ -2415,22 +2427,22 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="7">
         <v>13</v>
@@ -2440,22 +2452,22 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7">
         <v>13</v>
@@ -2465,22 +2477,22 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="7">
         <v>13</v>
@@ -2490,22 +2502,22 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7">
         <v>13</v>
@@ -2515,22 +2527,22 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="7">
         <v>13</v>
@@ -2540,22 +2552,22 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7">
         <v>13</v>
@@ -2565,22 +2577,22 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7">
         <v>13</v>
@@ -2590,22 +2602,22 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7">
         <v>13</v>
@@ -2615,22 +2627,22 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="7">
         <v>13</v>
@@ -2640,22 +2652,22 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="7">
         <v>13</v>
@@ -2665,22 +2677,22 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="7">
         <v>13</v>
@@ -2690,22 +2702,22 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="7">
         <v>13</v>
@@ -2715,22 +2727,22 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="7">
         <v>13</v>
@@ -2740,22 +2752,22 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" s="7">
         <v>13</v>
@@ -2765,22 +2777,22 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" s="7">
         <v>13</v>
@@ -2790,22 +2802,22 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="7">
         <v>13</v>
@@ -2815,22 +2827,22 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:27">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" s="7">
         <v>13</v>
@@ -2840,13 +2852,13 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2870,10 +2882,10 @@
     <row r="42" s="1" customFormat="1" spans="1:27">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" s="7">
         <v>13</v>
@@ -2883,13 +2895,13 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2913,10 +2925,10 @@
     <row r="43" s="1" customFormat="1" spans="1:27">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7">
         <v>13</v>
@@ -2926,13 +2938,13 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2956,10 +2968,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="7">
         <v>13</v>
@@ -2969,22 +2981,22 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7">
         <v>13</v>
@@ -2994,22 +3006,22 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:27">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46" s="7">
         <v>13</v>
@@ -3019,13 +3031,13 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3049,10 +3061,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" s="7">
         <v>13</v>
@@ -3062,22 +3074,22 @@
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:27">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D48" s="7">
         <v>13</v>
@@ -3087,13 +3099,13 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -3117,10 +3129,10 @@
     <row r="49" s="1" customFormat="1" spans="1:27">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" s="7">
         <v>13</v>
@@ -3130,13 +3142,13 @@
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3160,10 +3172,10 @@
     <row r="50" spans="1:9">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D50" s="7">
         <v>13</v>
@@ -3173,22 +3185,22 @@
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:27">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" s="7">
         <v>13</v>
@@ -3198,13 +3210,13 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -3228,10 +3240,10 @@
     <row r="52" s="1" customFormat="1" spans="1:27">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D52" s="7">
         <v>13</v>
@@ -3241,13 +3253,13 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3271,10 +3283,10 @@
     <row r="53" s="1" customFormat="1" spans="1:27">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D53" s="7">
         <v>13</v>
@@ -3284,13 +3296,13 @@
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3314,10 +3326,10 @@
     <row r="54" s="1" customFormat="1" spans="1:27">
       <c r="A54" s="6"/>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D54" s="7">
         <v>13</v>
@@ -3327,13 +3339,13 @@
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -3357,10 +3369,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D55" s="7">
         <v>13</v>
@@ -3370,22 +3382,22 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D56" s="7">
         <v>13</v>
@@ -3395,22 +3407,22 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D57" s="7">
         <v>13</v>
@@ -3420,22 +3432,22 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D58" s="7">
         <v>13</v>
@@ -3445,22 +3457,22 @@
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6"/>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D59" s="7">
         <v>13</v>
@@ -3470,22 +3482,22 @@
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D60" s="7">
         <v>13</v>
@@ -3495,22 +3507,22 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" s="7">
         <v>13</v>
@@ -3520,22 +3532,22 @@
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" s="7">
         <v>13</v>
@@ -3545,22 +3557,22 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" s="7">
         <v>13</v>
@@ -3570,22 +3582,22 @@
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D64" s="7">
         <v>13</v>
@@ -3595,22 +3607,22 @@
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D65" s="7">
         <v>13</v>
@@ -3620,22 +3632,22 @@
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D66" s="7">
         <v>13</v>
@@ -3645,22 +3657,22 @@
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D67" s="7">
         <v>13</v>
@@ -3670,22 +3682,22 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D68" s="7">
         <v>13</v>
@@ -3695,22 +3707,22 @@
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D69" s="7">
         <v>13</v>
@@ -3720,22 +3732,22 @@
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D70" s="7">
         <v>13</v>
@@ -3745,22 +3757,22 @@
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D71" s="7">
         <v>13</v>
@@ -3770,22 +3782,22 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D72" s="7">
         <v>13</v>
@@ -3795,22 +3807,22 @@
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D73" s="7">
         <v>13</v>
@@ -3820,22 +3832,22 @@
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D74" s="7">
         <v>13</v>
@@ -3845,22 +3857,22 @@
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" s="7">
         <v>13</v>
@@ -3870,22 +3882,22 @@
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D76" s="7">
         <v>13</v>
@@ -3895,22 +3907,22 @@
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" s="7">
         <v>13</v>
@@ -3920,22 +3932,22 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D78" s="7">
         <v>13</v>
@@ -3945,22 +3957,22 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D79" s="7">
         <v>13</v>
@@ -3970,22 +3982,22 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" s="7">
         <v>13</v>
@@ -3995,22 +4007,22 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="6"/>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" s="7">
         <v>13</v>
@@ -4020,22 +4032,22 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="7">
         <v>13</v>
@@ -4045,22 +4057,22 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="7">
         <v>13</v>
@@ -4070,22 +4082,22 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D84" s="7">
         <v>13</v>
@@ -4095,22 +4107,22 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85" s="7">
         <v>13</v>
@@ -4120,22 +4132,22 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D86" s="7">
         <v>13</v>
@@ -4145,22 +4157,22 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D87" s="7">
         <v>13</v>
@@ -4170,22 +4182,22 @@
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D88" s="7">
         <v>13</v>
@@ -4195,22 +4207,22 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="6"/>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D89" s="7">
         <v>13</v>
@@ -4220,22 +4232,22 @@
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:9">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D90" s="2">
         <v>13</v>
@@ -4244,22 +4256,22 @@
         <v>29</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:9">
       <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D91" s="2">
         <v>13</v>
@@ -4268,22 +4280,22 @@
         <v>29</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D92" s="2">
         <v>13</v>
@@ -4293,22 +4305,22 @@
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:9">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D93" s="2">
         <v>13</v>
@@ -4317,22 +4329,22 @@
         <v>29</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:9">
       <c r="A94" s="6"/>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D94" s="2">
         <v>13</v>
@@ -4342,22 +4354,22 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:9">
       <c r="A95" s="6"/>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" s="2">
         <v>13</v>
@@ -4367,22 +4379,22 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:9">
       <c r="A96" s="6"/>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D96" s="2">
         <v>13</v>
@@ -4392,22 +4404,22 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:9">
       <c r="A97" s="6"/>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D97" s="2">
         <v>13</v>
@@ -4417,22 +4429,22 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:9">
       <c r="A98" s="6"/>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D98" s="2">
         <v>13</v>
@@ -4442,22 +4454,22 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:9">
       <c r="A99" s="6"/>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D99" s="2">
         <v>13</v>
@@ -4467,22 +4479,22 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:28">
       <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D100" s="2">
         <v>13</v>
@@ -4491,23 +4503,23 @@
         <v>29</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB100" s="8"/>
     </row>
     <row r="101" customFormat="1" spans="1:9">
       <c r="A101" s="6"/>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D101" s="2">
         <v>13</v>
@@ -4517,19 +4529,19 @@
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:28">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D102" s="2">
         <v>13</v>
@@ -4538,20 +4550,20 @@
         <v>29</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB102" s="8"/>
     </row>
     <row r="103" customFormat="1" spans="1:9">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="2">
@@ -4562,19 +4574,19 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:9">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D104" s="2">
         <v>13</v>
@@ -4583,19 +4595,19 @@
         <v>29</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:9">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D105" s="2">
         <v>13</v>
@@ -4604,19 +4616,19 @@
         <v>29</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:27">
       <c r="A106" s="6"/>
       <c r="B106" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7">
@@ -4627,13 +4639,13 @@
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4657,7 +4669,7 @@
     <row r="107" s="1" customFormat="1" spans="1:27">
       <c r="A107" s="6"/>
       <c r="B107" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7">
@@ -4668,13 +4680,13 @@
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -4698,7 +4710,7 @@
     <row r="108" s="1" customFormat="1" spans="1:27">
       <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7">
@@ -4709,13 +4721,13 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -4739,7 +4751,7 @@
     <row r="109" s="1" customFormat="1" spans="1:27">
       <c r="A109" s="6"/>
       <c r="B109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="7">
@@ -4750,13 +4762,13 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
